--- a/results/tetris/Tetris_cz/map_us/time_Tetris_cz.xlsx
+++ b/results/tetris/Tetris_cz/map_us/time_Tetris_cz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,326 +505,391 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cz_2q_wim_266.qasm</t>
+          <t>cz_2q_qv_n12_d10.qasm</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>427</v>
+        <v>180</v>
       </c>
       <c r="C6" t="n">
-        <v>26.0235</v>
+        <v>15.4308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cz_2q_radd_250.qasm</t>
+          <t>cz_2q_wim_266.qasm</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1405</v>
+        <v>427</v>
       </c>
       <c r="C7" t="n">
-        <v>98.2688</v>
+        <v>26.0235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cz_2q_decod24-v2_43.qasm</t>
+          <t>cz_2q_radd_250.qasm</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22</v>
+        <v>1405</v>
       </c>
       <c r="C8" t="n">
-        <v>0.873252</v>
+        <v>98.2688</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cz_2q_4gt13_92.qasm</t>
+          <t>cz_2q_decod24-v2_43.qasm</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6653289999999999</v>
+        <v>0.873252</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cz_2q_ising_model_13.qasm</t>
+          <t>cz_2q_4gt13_92.qasm</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>4.51396</v>
+        <v>0.6653289999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>cz_2q_rd53_130.qasm</t>
+          <t>cz_2q_ising_model_13.qasm</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>448</v>
+        <v>120</v>
       </c>
       <c r="C11" t="n">
-        <v>27.598</v>
+        <v>4.51396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cz_2q_ising_model_16.qasm</t>
+          <t>cz_2q_rd53_130.qasm</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>150</v>
+        <v>448</v>
       </c>
       <c r="C12" t="n">
-        <v>6.93433</v>
+        <v>27.598</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>cz_2q_con1_216.qasm</t>
+          <t>cz_2q_ising_model_16.qasm</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415</v>
+        <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>24.3895</v>
+        <v>6.93433</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cz_2q_rd53_251.qasm</t>
+          <t>cz_2q_qv_n16_d5.qasm</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>564</v>
+        <v>120</v>
       </c>
       <c r="C14" t="n">
-        <v>31.9882</v>
+        <v>13.4617</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>cz_2q_sym6_145.qasm</t>
+          <t>cz_2q_con1_216.qasm</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1701</v>
+        <v>415</v>
       </c>
       <c r="C15" t="n">
-        <v>139.184</v>
+        <v>24.3895</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>cz_2q_square_root_7.qasm</t>
+          <t>cz_2q_rd53_251.qasm</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3089</v>
+        <v>564</v>
       </c>
       <c r="C16" t="n">
-        <v>267.61</v>
+        <v>31.9882</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>cz_2q_hwb5_53.qasm</t>
+          <t>cz_2q_sym6_145.qasm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>598</v>
+        <v>1701</v>
       </c>
       <c r="C17" t="n">
-        <v>35.5509</v>
+        <v>139.184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>cz_2q_sf_274.qasm</t>
+          <t>cz_2q_square_root_7.qasm</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>336</v>
+        <v>3089</v>
       </c>
       <c r="C18" t="n">
-        <v>14.731</v>
+        <v>267.61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>cz_2q_4mod5-v1_22.qasm</t>
+          <t>cz_2q_hwb5_53.qasm</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>598</v>
       </c>
       <c r="C19" t="n">
-        <v>0.169319</v>
+        <v>35.5509</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>cz_2q_cm152a_212.qasm</t>
+          <t>cz_2q_sf_274.qasm</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>532</v>
+        <v>336</v>
       </c>
       <c r="C20" t="n">
-        <v>35.0918</v>
+        <v>14.731</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>cz_2q_qft_16.qasm</t>
+          <t>cz_2q_4mod5-v1_22.qasm</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>29.9213</v>
+        <v>0.169319</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>cz_2q_cm42a_207.qasm</t>
+          <t>cz_2q_cm152a_212.qasm</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>771</v>
+        <v>532</v>
       </c>
       <c r="C22" t="n">
-        <v>47.8855</v>
+        <v>35.0918</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>cz_2q_mod5mils_65.qasm</t>
+          <t>cz_2q_qft_16.qasm</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="C23" t="n">
-        <v>0.242162</v>
+        <v>29.9213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>cz_2q_z4_268.qasm</t>
+          <t>cz_2q_cm42a_207.qasm</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1343</v>
+        <v>771</v>
       </c>
       <c r="C24" t="n">
-        <v>87.69580000000001</v>
+        <v>47.8855</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>cz_2q_f2_232.qasm</t>
+          <t>cz_2q_mod5mils_65.qasm</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>525</v>
+        <v>16</v>
       </c>
       <c r="C25" t="n">
-        <v>30.9917</v>
+        <v>0.242162</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>cz_2q_rd73_252.qasm</t>
+          <t>cz_2q_z4_268.qasm</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2319</v>
+        <v>1343</v>
       </c>
       <c r="C26" t="n">
-        <v>167.88</v>
+        <v>87.69580000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>cz_2q_misex1_241.qasm</t>
+          <t>cz_2q_f2_232.qasm</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2100</v>
+        <v>525</v>
       </c>
       <c r="C27" t="n">
-        <v>146.287</v>
+        <v>30.9917</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>cz_2q_sf_276.qasm</t>
+          <t>cz_2q_rd73_252.qasm</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>336</v>
+        <v>2319</v>
       </c>
       <c r="C28" t="n">
-        <v>16.2682</v>
+        <v>167.88</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>cz_2q_rd84_142.qasm</t>
+          <t>cz_2q_misex1_241.qasm</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>154</v>
+        <v>2100</v>
       </c>
       <c r="C29" t="n">
-        <v>8.129860000000001</v>
+        <v>146.287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>cz_2q_sf_276.qasm</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>336</v>
+      </c>
+      <c r="C30" t="n">
+        <v>16.2682</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>cz_2q_rd84_142.qasm</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>154</v>
+      </c>
+      <c r="C31" t="n">
+        <v>8.129860000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>cz_2q_ising_model_10.qasm</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B32" t="n">
         <v>90</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C32" t="n">
         <v>2.92649</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>cz_2q_bv_n16.qasm</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>15</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.611521</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>cz_2q_alu-v0_27.qasm</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>17</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.307377</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>cz_2q_dc1_220.qasm</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>833</v>
+      </c>
+      <c r="C35" t="n">
+        <v>63.9818</v>
       </c>
     </row>
   </sheetData>
